--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD82677-1E73-4268-A5EF-13CD6B4A3AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47DD90A-8503-4A9F-88ED-3E86EF7BCE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -388,9 +388,6 @@
     <t>5. Sélectionnez le code de l'école</t>
   </si>
   <si>
-    <t>(2024 Mar) - 3. SCH/STH – Resultats V4.1</t>
-  </si>
-  <si>
     <t>r_code_id</t>
   </si>
   <si>
@@ -409,9 +406,6 @@
     <t>Resultado FTS</t>
   </si>
   <si>
-    <t>sn_r_202403</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -496,7 +490,13 @@
     <t>r_trichuris_intensity</t>
   </si>
   <si>
-    <t>sn_sch_sth_impact_20403_3_resultat</t>
+    <t>(2024 Mar) - 3. SCH/STH – Resultats V1.1</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_20403_3_resultat_v1_1</t>
+  </si>
+  <si>
+    <t>sn_r_202403_v1_1</t>
   </si>
 </sst>
 </file>
@@ -1362,11 +1362,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H37:H38"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="7" spans="1:14" s="23" customFormat="1">
       <c r="A7" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="69" t="s">
         <v>121</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>122</v>
       </c>
       <c r="C7" s="70"/>
       <c r="D7" s="71"/>
@@ -1556,22 +1556,22 @@
       <c r="G7" s="73"/>
       <c r="H7" s="69"/>
       <c r="I7" s="68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J7" s="68"/>
       <c r="K7" s="68"/>
       <c r="L7" s="68"/>
       <c r="M7" s="68"/>
     </row>
-    <row r="8" spans="1:14" s="23" customFormat="1">
+    <row r="8" spans="1:14" s="23" customFormat="1" ht="31.5">
       <c r="A8" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="76" t="s">
         <v>123</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>124</v>
       </c>
       <c r="D8" s="75"/>
       <c r="E8" s="74"/>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="9" spans="1:14" s="23" customFormat="1">
       <c r="A9" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="71"/>
@@ -1599,7 +1599,7 @@
       <c r="G9" s="73"/>
       <c r="H9" s="69"/>
       <c r="I9" s="68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J9" s="68"/>
       <c r="K9" s="68"/>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10" spans="1:14" s="23" customFormat="1">
       <c r="A10" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" s="70"/>
       <c r="D10" s="71"/>
@@ -1620,7 +1620,7 @@
       <c r="G10" s="73"/>
       <c r="H10" s="69"/>
       <c r="I10" s="68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
@@ -1632,20 +1632,20 @@
         <v>13</v>
       </c>
       <c r="B11" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1784,7 +1784,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>51</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="19" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A19" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -1822,7 +1822,7 @@
       <c r="G19" s="81"/>
       <c r="H19" s="82"/>
       <c r="I19" s="80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="80"/>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="20" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A20" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -1842,7 +1842,7 @@
       <c r="G20" s="81"/>
       <c r="H20" s="82"/>
       <c r="I20" s="80" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="80"/>
@@ -1911,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>54</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="25" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A25" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -1949,7 +1949,7 @@
       <c r="G25" s="81"/>
       <c r="H25" s="82"/>
       <c r="I25" s="80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J25" s="27"/>
       <c r="K25" s="80"/>
@@ -1957,10 +1957,10 @@
     </row>
     <row r="26" spans="1:13" s="23" customFormat="1" ht="47.25">
       <c r="A26" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -1969,7 +1969,7 @@
       <c r="G26" s="81"/>
       <c r="H26" s="82"/>
       <c r="I26" s="80" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J26" s="27"/>
       <c r="K26" s="80"/>
@@ -2038,7 +2038,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>107</v>
@@ -2064,10 +2064,10 @@
     </row>
     <row r="31" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A31" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -2076,7 +2076,7 @@
       <c r="G31" s="81"/>
       <c r="H31" s="82"/>
       <c r="I31" s="80" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J31" s="27"/>
       <c r="K31" s="80"/>
@@ -2084,10 +2084,10 @@
     </row>
     <row r="32" spans="1:13" s="23" customFormat="1" ht="47.25">
       <c r="A32" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -2096,7 +2096,7 @@
       <c r="G32" s="81"/>
       <c r="H32" s="82"/>
       <c r="I32" s="80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J32" s="27"/>
       <c r="K32" s="80"/>
@@ -2165,7 +2165,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>59</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="37" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A37" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -2203,7 +2203,7 @@
       <c r="G37" s="81"/>
       <c r="H37" s="82"/>
       <c r="I37" s="80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J37" s="27"/>
       <c r="K37" s="80"/>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="38" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A38" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -2223,7 +2223,7 @@
       <c r="G38" s="81"/>
       <c r="H38" s="82"/>
       <c r="I38" s="80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J38" s="27"/>
       <c r="K38" s="80"/>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="20"/>
@@ -2740,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="23" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>

--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47DD90A-8503-4A9F-88ED-3E86EF7BCE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAE4E52-6D99-43E6-9A29-8E89BEB2843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="162">
   <si>
     <t>type</t>
   </si>
@@ -85,9 +85,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>Notes additionnelles</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>3. Sélectionnez le Poste de santé</t>
   </si>
   <si>
-    <t>7. Graduation de la micro hématurie</t>
-  </si>
-  <si>
     <t>select_one grading</t>
   </si>
   <si>
@@ -181,54 +175,6 @@
     <t>+++</t>
   </si>
   <si>
-    <t>8.b. Mansoni nombre d’œufs lame B</t>
-  </si>
-  <si>
-    <t>8.a. Mansoni nombre d’œufs lame A</t>
-  </si>
-  <si>
-    <t>8.c. Mansoni nombre d’œufs par gramme de selles</t>
-  </si>
-  <si>
-    <t>9.a. Ascaris nombre d’œufs lame A</t>
-  </si>
-  <si>
-    <t>9.b. Ascaris nombre d’œufs lame B</t>
-  </si>
-  <si>
-    <t>9.c. Ascaris nombre d’œufs par gramme de selles</t>
-  </si>
-  <si>
-    <t>10.a. Ankylostome nombre d’œufs lame A</t>
-  </si>
-  <si>
-    <t>10.b. Ankylostome nombre d’œufs lame B</t>
-  </si>
-  <si>
-    <t>11.a. Trichocéphale nombre d’œufs lame A</t>
-  </si>
-  <si>
-    <t>11.b. Trichocéphale nombre d’œufs lame B</t>
-  </si>
-  <si>
-    <t>11.c. Trichocéphale nombre d’œufs par gramme de selles</t>
-  </si>
-  <si>
-    <t>12. Autres?</t>
-  </si>
-  <si>
-    <t>12.a. Préciser autre:</t>
-  </si>
-  <si>
-    <t>12.b. Nombre d’œufs lame A</t>
-  </si>
-  <si>
-    <t>12.c. Nombre d’œufs lame B</t>
-  </si>
-  <si>
-    <t>12.d. Nombre d’œufs par gramme de selles</t>
-  </si>
-  <si>
     <t>r_recorder</t>
   </si>
   <si>
@@ -277,9 +223,6 @@
     <t>r_nom_autre</t>
   </si>
   <si>
-    <t>${r_autre}='Oui'</t>
-  </si>
-  <si>
     <t>r_autre_sa</t>
   </si>
   <si>
@@ -322,15 +265,6 @@
     <t>r_sh_egp</t>
   </si>
   <si>
-    <t>Schistosoma haematobium - Nombre d’œufs dans l’échantillon d’urine</t>
-  </si>
-  <si>
-    <t>Schistosoma haematobium - Volume d’urine collectée (en ml )</t>
-  </si>
-  <si>
-    <t>Schistosoma haematobium - Nombre d’œufs dans 10 ml d’urine</t>
-  </si>
-  <si>
     <t>r_note1</t>
   </si>
   <si>
@@ -355,9 +289,6 @@
     <t>(${r_hookworm_sa} + ${r_hookworm_sb})*12</t>
   </si>
   <si>
-    <t>10.c. Ankylostome nombre d’œufs par gramme de selles</t>
-  </si>
-  <si>
     <t>(${r_trichuris_sa} + ${r_trichuris_sb})*12</t>
   </si>
   <si>
@@ -382,12 +313,6 @@
     <t>Saisie Manuel</t>
   </si>
   <si>
-    <t>4. Sélectionnez le nom de l'école</t>
-  </si>
-  <si>
-    <t>5. Sélectionnez le code de l'école</t>
-  </si>
-  <si>
     <t>r_code_id</t>
   </si>
   <si>
@@ -403,9 +328,6 @@
     <t>begin repeat</t>
   </si>
   <si>
-    <t>Resultado FTS</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -490,13 +412,112 @@
     <t>r_trichuris_intensity</t>
   </si>
   <si>
-    <t>(2024 Mar) - 3. SCH/STH – Resultats V1.1</t>
-  </si>
-  <si>
-    <t>sn_sch_sth_impact_20403_3_resultat_v1_1</t>
-  </si>
-  <si>
-    <t>sn_r_202403_v1_1</t>
+    <t>(2024 Mar) - 3. SCH/STH – Resultats V2</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_20403_3_resultat_v2</t>
+  </si>
+  <si>
+    <t>sn_r_202403_v2</t>
+  </si>
+  <si>
+    <t>4. Sélectionnez le nom de l'école / Village</t>
+  </si>
+  <si>
+    <t>5. Sélectionnez le code de l'école / Village</t>
+  </si>
+  <si>
+    <t>Résultats</t>
+  </si>
+  <si>
+    <t>Filtration d'urine + Kato katz</t>
+  </si>
+  <si>
+    <t>Filtration d'urine Uniquement</t>
+  </si>
+  <si>
+    <t>test_set</t>
+  </si>
+  <si>
+    <t>select_one test_set</t>
+  </si>
+  <si>
+    <t>r_test</t>
+  </si>
+  <si>
+    <t>7. Test effectué sur l'enfant</t>
+  </si>
+  <si>
+    <t>${r_test} = 'Filtration d'urine + Kato katz'</t>
+  </si>
+  <si>
+    <t>${r_autre}='Oui' and ${r_test} = 'Filtration d'urine + Kato katz'</t>
+  </si>
+  <si>
+    <t>8. Graduation de la micro hématurie</t>
+  </si>
+  <si>
+    <t>9. Schistosoma haematobium - Volume d’urine collectée (en ml )</t>
+  </si>
+  <si>
+    <t>10. Schistosoma haematobium - Nombre d’œufs dans l’échantillon d’urine</t>
+  </si>
+  <si>
+    <t>11. Schistosoma haematobium - Nombre d’œufs dans 10 ml d’urine</t>
+  </si>
+  <si>
+    <t>12.a. Mansoni nombre d’œufs lame A</t>
+  </si>
+  <si>
+    <t>12.b. Mansoni nombre d’œufs lame B</t>
+  </si>
+  <si>
+    <t>12.c. Mansoni nombre d’œufs par gramme de selles</t>
+  </si>
+  <si>
+    <t>13.a. Ascaris nombre d’œufs lame A</t>
+  </si>
+  <si>
+    <t>13.b. Ascaris nombre d’œufs lame B</t>
+  </si>
+  <si>
+    <t>13.c. Ascaris nombre d’œufs par gramme de selles</t>
+  </si>
+  <si>
+    <t>14.a. Ankylostome nombre d’œufs lame A</t>
+  </si>
+  <si>
+    <t>14.b. Ankylostome nombre d’œufs lame B</t>
+  </si>
+  <si>
+    <t>14.c. Ankylostome nombre d’œufs par gramme de selles</t>
+  </si>
+  <si>
+    <t>15.a. Trichocéphale nombre d’œufs lame A</t>
+  </si>
+  <si>
+    <t>15.b. Trichocéphale nombre d’œufs lame B</t>
+  </si>
+  <si>
+    <t>15.c. Trichocéphale nombre d’œufs par gramme de selles</t>
+  </si>
+  <si>
+    <t>16. Autres?</t>
+  </si>
+  <si>
+    <t>16.a. Préciser autre:</t>
+  </si>
+  <si>
+    <t>16.b. Nombre d’œufs lame A</t>
+  </si>
+  <si>
+    <t>16.c. Nombre d’œufs lame B</t>
+  </si>
+  <si>
+    <t>16.d. Nombre d’œufs par gramme de selles</t>
+  </si>
+  <si>
+    <t>17. Notes additionnelles</t>
   </si>
 </sst>
 </file>
@@ -847,7 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1076,6 +1097,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1360,13 +1390,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1423,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" ht="31.5">
@@ -1431,20 +1461,20 @@
         <v>13</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -1459,10 +1489,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="5"/>
@@ -1481,10 +1511,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="5"/>
@@ -1503,10 +1533,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="5"/>
@@ -1525,10 +1555,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="5"/>
@@ -1544,10 +1574,10 @@
     </row>
     <row r="7" spans="1:14" s="23" customFormat="1">
       <c r="A7" s="68" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C7" s="70"/>
       <c r="D7" s="71"/>
@@ -1556,22 +1586,22 @@
       <c r="G7" s="73"/>
       <c r="H7" s="69"/>
       <c r="I7" s="68" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="J7" s="68"/>
       <c r="K7" s="68"/>
       <c r="L7" s="68"/>
       <c r="M7" s="68"/>
     </row>
-    <row r="8" spans="1:14" s="23" customFormat="1" ht="31.5">
+    <row r="8" spans="1:14" s="23" customFormat="1">
       <c r="A8" s="74" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D8" s="75"/>
       <c r="E8" s="74"/>
@@ -1587,10 +1617,10 @@
     </row>
     <row r="9" spans="1:14" s="23" customFormat="1">
       <c r="A9" s="68" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="71"/>
@@ -1599,7 +1629,7 @@
       <c r="G9" s="73"/>
       <c r="H9" s="69"/>
       <c r="I9" s="68" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="J9" s="68"/>
       <c r="K9" s="68"/>
@@ -1608,10 +1638,10 @@
     </row>
     <row r="10" spans="1:14" s="23" customFormat="1">
       <c r="A10" s="68" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C10" s="70"/>
       <c r="D10" s="71"/>
@@ -1620,7 +1650,7 @@
       <c r="G10" s="73"/>
       <c r="H10" s="69"/>
       <c r="I10" s="68" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
@@ -1632,20 +1662,20 @@
         <v>13</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1656,503 +1686,518 @@
       <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1">
-      <c r="A12" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-    </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="31.5">
-      <c r="A13" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="45" t="s">
+      <c r="A12" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="83"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" s="9" customFormat="1">
+      <c r="A13" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="1:14" s="9" customFormat="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="B13" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+    </row>
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="31.5">
+      <c r="A14" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="16"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:14" s="9" customFormat="1">
-      <c r="A15" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:14" s="9" customFormat="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
+    </row>
+    <row r="17" spans="1:13" s="9" customFormat="1" ht="31.5">
+      <c r="A17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" spans="1:13" s="9" customFormat="1">
-      <c r="A17" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="6" t="s">
+      <c r="B17" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="36" t="s">
         <v>12</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:13" s="9" customFormat="1" ht="31.5">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="B18" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="36" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="23" customFormat="1" ht="31.5">
-      <c r="A19" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="80" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-    </row>
-    <row r="20" spans="1:13" s="23" customFormat="1" ht="31.5">
-      <c r="A20" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
+    </row>
+    <row r="19" spans="1:13" s="9" customFormat="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:13" s="9" customFormat="1" ht="31.5">
+      <c r="A20" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:13" s="9" customFormat="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:13" s="9" customFormat="1" ht="31.5">
-      <c r="A22" s="6" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="26"/>
+      <c r="L21" s="51"/>
+    </row>
+    <row r="22" spans="1:13" s="9" customFormat="1">
+      <c r="A22" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
+    </row>
+    <row r="23" spans="1:13" s="9" customFormat="1">
+      <c r="A23" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="22"/>
-    </row>
-    <row r="23" spans="1:13" s="9" customFormat="1" ht="31.5">
-      <c r="A23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="28" t="s">
+      <c r="B23" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="C23" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="19"/>
       <c r="J23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:13" s="9" customFormat="1" ht="31.5">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:13" s="9" customFormat="1">
+      <c r="A24" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" s="36" t="s">
+      <c r="C24" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="22"/>
-      <c r="M24" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="23" customFormat="1" ht="31.5">
-      <c r="A25" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="80" t="s">
+    </row>
+    <row r="25" spans="1:13" s="9" customFormat="1" ht="31.5">
+      <c r="A25" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-    </row>
-    <row r="26" spans="1:13" s="23" customFormat="1" ht="47.25">
+      <c r="I25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A26" s="27" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="80"/>
       <c r="F26" s="27"/>
       <c r="G26" s="81"/>
-      <c r="H26" s="82"/>
+      <c r="H26" s="82" t="s">
+        <v>138</v>
+      </c>
       <c r="I26" s="80" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="J26" s="27"/>
       <c r="K26" s="80"/>
       <c r="L26" s="80"/>
     </row>
-    <row r="27" spans="1:13" s="9" customFormat="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="22"/>
+    <row r="27" spans="1:13" s="23" customFormat="1" ht="31.5">
+      <c r="A27" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="27"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
     </row>
     <row r="28" spans="1:13" s="9" customFormat="1">
-      <c r="A28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="36" t="s">
-        <v>12</v>
-      </c>
+      <c r="A28" s="43"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:13" s="9" customFormat="1">
+    <row r="29" spans="1:13" s="9" customFormat="1" ht="31.5">
       <c r="A29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="36" t="s">
+      <c r="B29" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="22"/>
     </row>
     <row r="30" spans="1:13" s="9" customFormat="1" ht="31.5">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J30" s="36" t="s">
+      <c r="B30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="22"/>
-      <c r="M30" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="23" customFormat="1" ht="31.5">
-      <c r="A31" s="27" t="s">
-        <v>120</v>
+    </row>
+    <row r="31" spans="1:13" s="9" customFormat="1" ht="31.5">
+      <c r="A31" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-    </row>
-    <row r="32" spans="1:13" s="23" customFormat="1" ht="47.25">
+        <v>115</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A32" s="27" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="80"/>
       <c r="F32" s="27"/>
       <c r="G32" s="81"/>
-      <c r="H32" s="82"/>
+      <c r="H32" s="82" t="s">
+        <v>138</v>
+      </c>
       <c r="I32" s="80" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="J32" s="27"/>
       <c r="K32" s="80"/>
       <c r="L32" s="80"/>
     </row>
-    <row r="33" spans="1:13" s="9" customFormat="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="22"/>
+    <row r="33" spans="1:13" s="23" customFormat="1" ht="47.25">
+      <c r="A33" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="27"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="1:13" s="9" customFormat="1">
-      <c r="A34" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>57</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="E34" s="39"/>
       <c r="F34" s="33"/>
       <c r="G34" s="40"/>
       <c r="H34" s="39"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="36" t="s">
-        <v>12</v>
-      </c>
+      <c r="J34" s="26"/>
       <c r="K34" s="5"/>
       <c r="L34" s="22"/>
     </row>
     <row r="35" spans="1:13" s="9" customFormat="1">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>78</v>
+      <c r="B35" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="39"/>
       <c r="F35" s="33"/>
       <c r="G35" s="40"/>
-      <c r="H35" s="39"/>
+      <c r="H35" s="39" t="s">
+        <v>138</v>
+      </c>
       <c r="I35" s="39"/>
       <c r="J35" s="36" t="s">
         <v>12</v>
@@ -2160,127 +2205,135 @@
       <c r="K35" s="5"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:13" s="9" customFormat="1" ht="31.5">
-      <c r="A36" s="31" t="s">
+    <row r="36" spans="1:13" s="9" customFormat="1">
+      <c r="A36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>110</v>
-      </c>
+      <c r="D36" s="30"/>
       <c r="E36" s="39"/>
       <c r="F36" s="33"/>
       <c r="G36" s="40"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="H36" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" s="39"/>
       <c r="J36" s="36" t="s">
         <v>12</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="22"/>
-      <c r="M36" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="23" customFormat="1" ht="31.5">
-      <c r="A37" s="27" t="s">
+    </row>
+    <row r="37" spans="1:13" s="9" customFormat="1" ht="31.5">
+      <c r="A37" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="J37" s="27"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
+      <c r="C37" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="39"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A38" s="27" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="80"/>
       <c r="F38" s="27"/>
       <c r="G38" s="81"/>
-      <c r="H38" s="82"/>
+      <c r="H38" s="82" t="s">
+        <v>138</v>
+      </c>
       <c r="I38" s="80" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="J38" s="27"/>
       <c r="K38" s="80"/>
       <c r="L38" s="80"/>
     </row>
-    <row r="39" spans="1:13" s="9" customFormat="1">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="22"/>
+    <row r="39" spans="1:13" s="23" customFormat="1" ht="47.25">
+      <c r="A39" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" s="27"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
     </row>
     <row r="40" spans="1:13" s="9" customFormat="1">
-      <c r="A40" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>60</v>
-      </c>
+      <c r="A40" s="31"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="30"/>
       <c r="E40" s="39"/>
       <c r="F40" s="33"/>
       <c r="G40" s="40"/>
-      <c r="H40" s="47"/>
+      <c r="H40" s="39"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="36" t="s">
-        <v>12</v>
-      </c>
+      <c r="J40" s="26"/>
       <c r="K40" s="5"/>
       <c r="L40" s="22"/>
     </row>
     <row r="41" spans="1:13" s="9" customFormat="1">
-      <c r="A41" s="35" t="s">
-        <v>15</v>
+      <c r="A41" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="39"/>
       <c r="F41" s="33"/>
       <c r="G41" s="40"/>
-      <c r="H41" s="47" t="s">
-        <v>81</v>
+      <c r="H41" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="I41" s="39"/>
       <c r="J41" s="36" t="s">
@@ -2294,17 +2347,17 @@
         <v>16</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="39"/>
       <c r="F42" s="33"/>
       <c r="G42" s="40"/>
-      <c r="H42" s="47" t="s">
-        <v>81</v>
+      <c r="H42" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="I42" s="39"/>
       <c r="J42" s="36" t="s">
@@ -2313,110 +2366,110 @@
       <c r="K42" s="5"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:13" s="9" customFormat="1">
+    <row r="43" spans="1:13" s="9" customFormat="1" ht="31.5">
       <c r="A43" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="30"/>
+        <v>155</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>87</v>
+      </c>
       <c r="E43" s="39"/>
       <c r="F43" s="33"/>
       <c r="G43" s="40"/>
-      <c r="H43" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="I43" s="39"/>
+      <c r="H43" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="J43" s="36" t="s">
         <v>12</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="22"/>
-    </row>
-    <row r="44" spans="1:13" s="9" customFormat="1" ht="31.5">
-      <c r="A44" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J44" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="9" customFormat="1">
-      <c r="A45" s="26"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="22"/>
+      <c r="M43" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="23" customFormat="1" ht="31.5">
+      <c r="A44" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" s="27"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+    </row>
+    <row r="45" spans="1:13" s="23" customFormat="1" ht="31.5">
+      <c r="A45" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="I45" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="J45" s="27"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
     </row>
     <row r="46" spans="1:13" s="9" customFormat="1">
-      <c r="A46" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="61"/>
-    </row>
-    <row r="47" spans="1:13" s="9" customFormat="1" ht="31.5">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="22"/>
+    </row>
+    <row r="47" spans="1:13" s="9" customFormat="1">
       <c r="A47" s="33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="39"/>
       <c r="F47" s="33"/>
       <c r="G47" s="40"/>
-      <c r="H47" s="39"/>
+      <c r="H47" s="47"/>
       <c r="I47" s="39"/>
       <c r="J47" s="36" t="s">
         <v>12</v>
@@ -2424,21 +2477,23 @@
       <c r="K47" s="5"/>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:13" s="9" customFormat="1" ht="31.5">
-      <c r="A48" s="33" t="s">
-        <v>16</v>
+    <row r="48" spans="1:13" s="9" customFormat="1">
+      <c r="A48" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="39"/>
       <c r="F48" s="33"/>
       <c r="G48" s="40"/>
-      <c r="H48" s="39"/>
+      <c r="H48" s="47" t="s">
+        <v>139</v>
+      </c>
       <c r="I48" s="39"/>
       <c r="J48" s="36" t="s">
         <v>12</v>
@@ -2447,87 +2502,108 @@
       <c r="L48" s="22"/>
     </row>
     <row r="49" spans="1:13" s="9" customFormat="1">
-      <c r="A49" s="33"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="29"/>
+      <c r="A49" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="D49" s="30"/>
       <c r="E49" s="39"/>
       <c r="F49" s="33"/>
       <c r="G49" s="40"/>
-      <c r="H49" s="39"/>
+      <c r="H49" s="47" t="s">
+        <v>139</v>
+      </c>
       <c r="I49" s="39"/>
-      <c r="J49" s="36"/>
+      <c r="J49" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="K49" s="5"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:13" s="9" customFormat="1" ht="31.5">
-      <c r="A50" s="33" t="s">
+    <row r="50" spans="1:13" s="9" customFormat="1">
+      <c r="A50" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>111</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D50" s="30"/>
       <c r="E50" s="39"/>
       <c r="F50" s="33"/>
       <c r="G50" s="40"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39" t="s">
-        <v>103</v>
-      </c>
+      <c r="H50" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="I50" s="39"/>
       <c r="J50" s="36" t="s">
         <v>12</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="22"/>
-      <c r="M50" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="9" customFormat="1">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="26"/>
-      <c r="L51" s="51"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
+    </row>
+    <row r="51" spans="1:13" s="9" customFormat="1" ht="31.5">
+      <c r="A51" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="39"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="9" customFormat="1">
+      <c r="A52" s="26"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="22"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="85" t="s">
+        <v>161</v>
+      </c>
       <c r="D53" s="8"/>
       <c r="E53" s="7"/>
       <c r="F53" s="15"/>
@@ -2540,11 +2616,9 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>86</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B54" s="15"/>
       <c r="C54" s="20"/>
       <c r="D54" s="8"/>
       <c r="E54" s="7"/>
@@ -2557,11 +2631,11 @@
       <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="15" t="s">
-        <v>19</v>
+      <c r="A55" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="8"/>
@@ -2574,6 +2648,24 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
     </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2582,11 +2674,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2601,7 +2693,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2610,124 +2702,146 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="53" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" s="53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="24" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="24" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>115</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2752,24 +2866,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="23" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAE4E52-6D99-43E6-9A29-8E89BEB2843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B113F00-FBAF-4753-B882-5614B0944A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="164">
   <si>
     <t>type</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t>17. Notes additionnelles</t>
+  </si>
+  <si>
+    <t>Filtration d urine + Kato katz</t>
+  </si>
+  <si>
+    <t>Filtration d urine Uniquement</t>
   </si>
 </sst>
 </file>
@@ -868,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1096,9 +1102,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1392,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1704,7 +1707,7 @@
       <c r="J12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="83"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:14" s="9" customFormat="1">
@@ -2236,7 +2239,7 @@
       <c r="B37" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="83" t="s">
         <v>152</v>
       </c>
       <c r="D37" s="29" t="s">
@@ -2601,7 +2604,7 @@
       <c r="B53" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="85" t="s">
+      <c r="C53" s="84" t="s">
         <v>161</v>
       </c>
       <c r="D53" s="8"/>
@@ -2676,9 +2679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2827,7 +2830,7 @@
         <v>134</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>132</v>
@@ -2838,7 +2841,7 @@
         <v>134</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>133</v>

--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B113F00-FBAF-4753-B882-5614B0944A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297111A7-E80E-492A-A3C9-7FE8B4E479A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -430,9 +430,6 @@
     <t>Résultats</t>
   </si>
   <si>
-    <t>Filtration d'urine + Kato katz</t>
-  </si>
-  <si>
     <t>Filtration d'urine Uniquement</t>
   </si>
   <si>
@@ -448,12 +445,6 @@
     <t>7. Test effectué sur l'enfant</t>
   </si>
   <si>
-    <t>${r_test} = 'Filtration d'urine + Kato katz'</t>
-  </si>
-  <si>
-    <t>${r_autre}='Oui' and ${r_test} = 'Filtration d'urine + Kato katz'</t>
-  </si>
-  <si>
     <t>8. Graduation de la micro hématurie</t>
   </si>
   <si>
@@ -524,6 +515,15 @@
   </si>
   <si>
     <t>Filtration d urine Uniquement</t>
+  </si>
+  <si>
+    <t>Filtration d'urine and Kato katz</t>
+  </si>
+  <si>
+    <t>${r_test} = 'Filtration d urine Uniquement'</t>
+  </si>
+  <si>
+    <t>${r_autre}='Oui' and ${r_test} = 'Filtration d urine Uniquement'</t>
   </si>
 </sst>
 </file>
@@ -1395,11 +1395,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1">
       <c r="A12" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="C12" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>137</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="5"/>
@@ -1739,7 +1739,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>72</v>
@@ -1797,7 +1797,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="39"/>
@@ -1819,7 +1819,7 @@
         <v>76</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="39"/>
@@ -1855,7 +1855,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>88</v>
@@ -1918,14 +1918,14 @@
         <v>53</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="19"/>
       <c r="F23" s="6"/>
       <c r="G23" s="21"/>
       <c r="H23" s="80" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="6" t="s">
@@ -1942,14 +1942,14 @@
         <v>54</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="19"/>
       <c r="F24" s="6"/>
       <c r="G24" s="21"/>
       <c r="H24" s="19" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="6" t="s">
@@ -1966,7 +1966,7 @@
         <v>110</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>87</v>
@@ -1975,7 +1975,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="16"/>
       <c r="H25" s="5" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>82</v>
@@ -2002,7 +2002,7 @@
       <c r="F26" s="27"/>
       <c r="G26" s="81"/>
       <c r="H26" s="82" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I26" s="80" t="s">
         <v>107</v>
@@ -2024,7 +2024,7 @@
       <c r="F27" s="27"/>
       <c r="G27" s="81"/>
       <c r="H27" s="82" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I27" s="80" t="s">
         <v>109</v>
@@ -2055,14 +2055,14 @@
         <v>55</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="19"/>
       <c r="F29" s="6"/>
       <c r="G29" s="21"/>
       <c r="H29" s="19" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="6" t="s">
@@ -2079,14 +2079,14 @@
         <v>56</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="37"/>
       <c r="F30" s="31"/>
       <c r="G30" s="38"/>
       <c r="H30" s="37" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I30" s="37"/>
       <c r="J30" s="6" t="s">
@@ -2103,7 +2103,7 @@
         <v>115</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>87</v>
@@ -2112,7 +2112,7 @@
       <c r="F31" s="33"/>
       <c r="G31" s="40"/>
       <c r="H31" s="39" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>83</v>
@@ -2139,7 +2139,7 @@
       <c r="F32" s="27"/>
       <c r="G32" s="81"/>
       <c r="H32" s="82" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I32" s="80" t="s">
         <v>112</v>
@@ -2161,7 +2161,7 @@
       <c r="F33" s="27"/>
       <c r="G33" s="81"/>
       <c r="H33" s="82" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I33" s="80" t="s">
         <v>114</v>
@@ -2192,14 +2192,14 @@
         <v>57</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="39"/>
       <c r="F35" s="33"/>
       <c r="G35" s="40"/>
       <c r="H35" s="39" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I35" s="39"/>
       <c r="J35" s="36" t="s">
@@ -2216,14 +2216,14 @@
         <v>58</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="39"/>
       <c r="F36" s="33"/>
       <c r="G36" s="40"/>
       <c r="H36" s="39" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I36" s="39"/>
       <c r="J36" s="36" t="s">
@@ -2240,7 +2240,7 @@
         <v>120</v>
       </c>
       <c r="C37" s="83" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>87</v>
@@ -2249,7 +2249,7 @@
       <c r="F37" s="33"/>
       <c r="G37" s="40"/>
       <c r="H37" s="39" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>84</v>
@@ -2276,7 +2276,7 @@
       <c r="F38" s="27"/>
       <c r="G38" s="81"/>
       <c r="H38" s="82" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I38" s="80" t="s">
         <v>117</v>
@@ -2298,7 +2298,7 @@
       <c r="F39" s="27"/>
       <c r="G39" s="81"/>
       <c r="H39" s="82" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I39" s="80" t="s">
         <v>119</v>
@@ -2329,14 +2329,14 @@
         <v>59</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="39"/>
       <c r="F41" s="33"/>
       <c r="G41" s="40"/>
       <c r="H41" s="39" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I41" s="39"/>
       <c r="J41" s="36" t="s">
@@ -2353,14 +2353,14 @@
         <v>60</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="39"/>
       <c r="F42" s="33"/>
       <c r="G42" s="40"/>
       <c r="H42" s="39" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I42" s="39"/>
       <c r="J42" s="36" t="s">
@@ -2377,7 +2377,7 @@
         <v>125</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>87</v>
@@ -2386,7 +2386,7 @@
       <c r="F43" s="33"/>
       <c r="G43" s="40"/>
       <c r="H43" s="39" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>85</v>
@@ -2413,7 +2413,7 @@
       <c r="F44" s="27"/>
       <c r="G44" s="81"/>
       <c r="H44" s="82" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I44" s="80" t="s">
         <v>122</v>
@@ -2435,7 +2435,7 @@
       <c r="F45" s="27"/>
       <c r="G45" s="81"/>
       <c r="H45" s="82" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I45" s="80" t="s">
         <v>124</v>
@@ -2466,7 +2466,7 @@
         <v>61</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="39"/>
@@ -2488,14 +2488,14 @@
         <v>62</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="39"/>
       <c r="F48" s="33"/>
       <c r="G48" s="40"/>
       <c r="H48" s="47" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I48" s="39"/>
       <c r="J48" s="36" t="s">
@@ -2512,14 +2512,14 @@
         <v>63</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="39"/>
       <c r="F49" s="33"/>
       <c r="G49" s="40"/>
       <c r="H49" s="47" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I49" s="39"/>
       <c r="J49" s="36" t="s">
@@ -2536,14 +2536,14 @@
         <v>64</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="39"/>
       <c r="F50" s="33"/>
       <c r="G50" s="40"/>
       <c r="H50" s="47" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I50" s="39"/>
       <c r="J50" s="36" t="s">
@@ -2560,7 +2560,7 @@
         <v>65</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51" s="30" t="s">
         <v>87</v>
@@ -2569,7 +2569,7 @@
       <c r="F51" s="33"/>
       <c r="G51" s="40"/>
       <c r="H51" s="47" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>86</v>
@@ -2605,7 +2605,7 @@
         <v>66</v>
       </c>
       <c r="C53" s="84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="7"/>
@@ -2679,7 +2679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -2827,24 +2827,24 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297111A7-E80E-492A-A3C9-7FE8B4E479A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9A1342-5F70-44F4-8306-B333B12A3BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="164">
   <si>
     <t>type</t>
   </si>
@@ -1396,10 +1396,10 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1903,7 +1903,9 @@
       <c r="E22" s="60"/>
       <c r="F22" s="60"/>
       <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
+      <c r="H22" s="80" t="s">
+        <v>162</v>
+      </c>
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
       <c r="K22" s="60"/>

--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9A1342-5F70-44F4-8306-B333B12A3BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEBFA78-331B-482F-A72F-0F1BAF1B2BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,15 +412,6 @@
     <t>r_trichuris_intensity</t>
   </si>
   <si>
-    <t>(2024 Mar) - 3. SCH/STH – Resultats V2</t>
-  </si>
-  <si>
-    <t>sn_sch_sth_impact_20403_3_resultat_v2</t>
-  </si>
-  <si>
-    <t>sn_r_202403_v2</t>
-  </si>
-  <si>
     <t>4. Sélectionnez le nom de l'école / Village</t>
   </si>
   <si>
@@ -520,10 +511,19 @@
     <t>Filtration d'urine and Kato katz</t>
   </si>
   <si>
-    <t>${r_test} = 'Filtration d urine Uniquement'</t>
-  </si>
-  <si>
-    <t>${r_autre}='Oui' and ${r_test} = 'Filtration d urine Uniquement'</t>
+    <t>(2024 Mar) - 3. SCH/STH – Resultats V3</t>
+  </si>
+  <si>
+    <t>${r_test} = 'Filtration d urine + Kato katz'</t>
+  </si>
+  <si>
+    <t>${r_autre}='Oui' and ${r_test} = 'Filtration d urine + Kato katz'</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_20403_3_res_v3</t>
+  </si>
+  <si>
+    <t>sn_r_202403_v3</t>
   </si>
 </sst>
 </file>
@@ -1396,10 +1396,10 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1539,7 +1539,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="5"/>
@@ -1561,7 +1561,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="5"/>
@@ -1601,10 +1601,10 @@
         <v>97</v>
       </c>
       <c r="B8" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="76" t="s">
         <v>128</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>131</v>
       </c>
       <c r="D8" s="75"/>
       <c r="E8" s="74"/>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1">
       <c r="A12" s="42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="5"/>
@@ -1739,7 +1739,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>72</v>
@@ -1797,7 +1797,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="39"/>
@@ -1819,7 +1819,7 @@
         <v>76</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="39"/>
@@ -1855,7 +1855,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>88</v>
@@ -1904,7 +1904,7 @@
       <c r="F22" s="60"/>
       <c r="G22" s="59"/>
       <c r="H22" s="80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
@@ -1920,14 +1920,14 @@
         <v>53</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="19"/>
       <c r="F23" s="6"/>
       <c r="G23" s="21"/>
       <c r="H23" s="80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="6" t="s">
@@ -1944,14 +1944,14 @@
         <v>54</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="19"/>
       <c r="F24" s="6"/>
       <c r="G24" s="21"/>
       <c r="H24" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="6" t="s">
@@ -1968,7 +1968,7 @@
         <v>110</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>87</v>
@@ -1977,7 +1977,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="16"/>
       <c r="H25" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>82</v>
@@ -2004,7 +2004,7 @@
       <c r="F26" s="27"/>
       <c r="G26" s="81"/>
       <c r="H26" s="82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I26" s="80" t="s">
         <v>107</v>
@@ -2026,7 +2026,7 @@
       <c r="F27" s="27"/>
       <c r="G27" s="81"/>
       <c r="H27" s="82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I27" s="80" t="s">
         <v>109</v>
@@ -2057,14 +2057,14 @@
         <v>55</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="19"/>
       <c r="F29" s="6"/>
       <c r="G29" s="21"/>
       <c r="H29" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="6" t="s">
@@ -2081,14 +2081,14 @@
         <v>56</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="37"/>
       <c r="F30" s="31"/>
       <c r="G30" s="38"/>
       <c r="H30" s="37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I30" s="37"/>
       <c r="J30" s="6" t="s">
@@ -2105,7 +2105,7 @@
         <v>115</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>87</v>
@@ -2114,7 +2114,7 @@
       <c r="F31" s="33"/>
       <c r="G31" s="40"/>
       <c r="H31" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>83</v>
@@ -2141,7 +2141,7 @@
       <c r="F32" s="27"/>
       <c r="G32" s="81"/>
       <c r="H32" s="82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I32" s="80" t="s">
         <v>112</v>
@@ -2163,7 +2163,7 @@
       <c r="F33" s="27"/>
       <c r="G33" s="81"/>
       <c r="H33" s="82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I33" s="80" t="s">
         <v>114</v>
@@ -2194,14 +2194,14 @@
         <v>57</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="39"/>
       <c r="F35" s="33"/>
       <c r="G35" s="40"/>
       <c r="H35" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I35" s="39"/>
       <c r="J35" s="36" t="s">
@@ -2218,14 +2218,14 @@
         <v>58</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="39"/>
       <c r="F36" s="33"/>
       <c r="G36" s="40"/>
       <c r="H36" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I36" s="39"/>
       <c r="J36" s="36" t="s">
@@ -2242,7 +2242,7 @@
         <v>120</v>
       </c>
       <c r="C37" s="83" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>87</v>
@@ -2251,7 +2251,7 @@
       <c r="F37" s="33"/>
       <c r="G37" s="40"/>
       <c r="H37" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>84</v>
@@ -2278,7 +2278,7 @@
       <c r="F38" s="27"/>
       <c r="G38" s="81"/>
       <c r="H38" s="82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I38" s="80" t="s">
         <v>117</v>
@@ -2300,7 +2300,7 @@
       <c r="F39" s="27"/>
       <c r="G39" s="81"/>
       <c r="H39" s="82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I39" s="80" t="s">
         <v>119</v>
@@ -2331,14 +2331,14 @@
         <v>59</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="39"/>
       <c r="F41" s="33"/>
       <c r="G41" s="40"/>
       <c r="H41" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I41" s="39"/>
       <c r="J41" s="36" t="s">
@@ -2355,14 +2355,14 @@
         <v>60</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="39"/>
       <c r="F42" s="33"/>
       <c r="G42" s="40"/>
       <c r="H42" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I42" s="39"/>
       <c r="J42" s="36" t="s">
@@ -2379,7 +2379,7 @@
         <v>125</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>87</v>
@@ -2388,7 +2388,7 @@
       <c r="F43" s="33"/>
       <c r="G43" s="40"/>
       <c r="H43" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>85</v>
@@ -2415,7 +2415,7 @@
       <c r="F44" s="27"/>
       <c r="G44" s="81"/>
       <c r="H44" s="82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I44" s="80" t="s">
         <v>122</v>
@@ -2437,7 +2437,7 @@
       <c r="F45" s="27"/>
       <c r="G45" s="81"/>
       <c r="H45" s="82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I45" s="80" t="s">
         <v>124</v>
@@ -2468,7 +2468,7 @@
         <v>61</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="39"/>
@@ -2490,14 +2490,14 @@
         <v>62</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="39"/>
       <c r="F48" s="33"/>
       <c r="G48" s="40"/>
       <c r="H48" s="47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I48" s="39"/>
       <c r="J48" s="36" t="s">
@@ -2514,14 +2514,14 @@
         <v>63</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="39"/>
       <c r="F49" s="33"/>
       <c r="G49" s="40"/>
       <c r="H49" s="47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I49" s="39"/>
       <c r="J49" s="36" t="s">
@@ -2538,14 +2538,14 @@
         <v>64</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="39"/>
       <c r="F50" s="33"/>
       <c r="G50" s="40"/>
       <c r="H50" s="47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I50" s="39"/>
       <c r="J50" s="36" t="s">
@@ -2562,7 +2562,7 @@
         <v>65</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" s="30" t="s">
         <v>87</v>
@@ -2571,7 +2571,7 @@
       <c r="F51" s="33"/>
       <c r="G51" s="40"/>
       <c r="H51" s="47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>86</v>
@@ -2607,7 +2607,7 @@
         <v>66</v>
       </c>
       <c r="C53" s="84" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="7"/>
@@ -2683,7 +2683,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2829,24 +2829,24 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2882,10 +2882,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="23" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>

--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEBFA78-331B-482F-A72F-0F1BAF1B2BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE413EA0-3122-4FF8-8DA7-DBA02F1AA560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="151">
   <si>
     <t>type</t>
   </si>
@@ -76,9 +76,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>select_one yesNo</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -217,21 +214,6 @@
     <t>r_trichuris_sb</t>
   </si>
   <si>
-    <t>r_autre</t>
-  </si>
-  <si>
-    <t>r_nom_autre</t>
-  </si>
-  <si>
-    <t>r_autre_sa</t>
-  </si>
-  <si>
-    <t>r_autre_sb</t>
-  </si>
-  <si>
-    <t>r_autre_gram</t>
-  </si>
-  <si>
     <t>r_remarks</t>
   </si>
   <si>
@@ -292,9 +274,6 @@
     <t>(${r_trichuris_sa} + ${r_trichuris_sb})*12</t>
   </si>
   <si>
-    <t>(${r_autre_sa} + ${r_autre_sb})*12</t>
-  </si>
-  <si>
     <t>Formule utilisée: (nombre d’œufs lame A + nombre d’œufs lame B) x12</t>
   </si>
   <si>
@@ -484,24 +463,6 @@
     <t>15.c. Trichocéphale nombre d’œufs par gramme de selles</t>
   </si>
   <si>
-    <t>16. Autres?</t>
-  </si>
-  <si>
-    <t>16.a. Préciser autre:</t>
-  </si>
-  <si>
-    <t>16.b. Nombre d’œufs lame A</t>
-  </si>
-  <si>
-    <t>16.c. Nombre d’œufs lame B</t>
-  </si>
-  <si>
-    <t>16.d. Nombre d’œufs par gramme de selles</t>
-  </si>
-  <si>
-    <t>17. Notes additionnelles</t>
-  </si>
-  <si>
     <t>Filtration d urine + Kato katz</t>
   </si>
   <si>
@@ -511,19 +472,19 @@
     <t>Filtration d'urine and Kato katz</t>
   </si>
   <si>
-    <t>(2024 Mar) - 3. SCH/STH – Resultats V3</t>
-  </si>
-  <si>
     <t>${r_test} = 'Filtration d urine + Kato katz'</t>
   </si>
   <si>
-    <t>${r_autre}='Oui' and ${r_test} = 'Filtration d urine + Kato katz'</t>
-  </si>
-  <si>
-    <t>sn_sch_sth_impact_20403_3_res_v3</t>
-  </si>
-  <si>
-    <t>sn_r_202403_v3</t>
+    <t>sn_sch_sth_impact_20403_3_res_v4</t>
+  </si>
+  <si>
+    <t>(2024 Mar) - 3. SCH/STH – Resultats V4</t>
+  </si>
+  <si>
+    <t>16. Notes additionnelles</t>
+  </si>
+  <si>
+    <t>sn_r_2403_v4</t>
   </si>
 </sst>
 </file>
@@ -874,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1005,9 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1393,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1456,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" ht="31.5">
@@ -1464,20 +1422,20 @@
         <v>13</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -1492,10 +1450,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="5"/>
@@ -1514,10 +1472,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="5"/>
@@ -1536,10 +1494,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="5"/>
@@ -1558,10 +1516,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="5"/>
@@ -1576,109 +1534,109 @@
       <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:14" s="23" customFormat="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+    </row>
+    <row r="8" spans="1:14" s="23" customFormat="1">
+      <c r="A8" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="74"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="78"/>
+    </row>
+    <row r="9" spans="1:14" s="23" customFormat="1">
+      <c r="A9" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+    </row>
+    <row r="10" spans="1:14" s="23" customFormat="1">
+      <c r="A10" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-    </row>
-    <row r="8" spans="1:14" s="23" customFormat="1">
-      <c r="A8" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="79"/>
-    </row>
-    <row r="9" spans="1:14" s="23" customFormat="1">
-      <c r="A9" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-    </row>
-    <row r="10" spans="1:14" s="23" customFormat="1">
-      <c r="A10" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
     </row>
     <row r="11" spans="1:14" s="9" customFormat="1" ht="31.5">
       <c r="A11" s="42" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1690,13 +1648,13 @@
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1">
       <c r="A12" s="42" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="5"/>
@@ -1711,38 +1669,38 @@
       <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:14" s="9" customFormat="1">
-      <c r="A13" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="59" t="s">
+      <c r="A13" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
+      <c r="C13" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:14" s="9" customFormat="1" ht="31.5">
       <c r="A14" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1770,34 +1728,34 @@
       <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:14" s="9" customFormat="1">
-      <c r="A16" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="61"/>
+      <c r="A16" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
     </row>
     <row r="17" spans="1:13" s="9" customFormat="1" ht="31.5">
       <c r="A17" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="39"/>
@@ -1813,13 +1771,13 @@
     </row>
     <row r="18" spans="1:13" s="9" customFormat="1" ht="31.5">
       <c r="A18" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="39"/>
@@ -1849,23 +1807,23 @@
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" ht="31.5">
       <c r="A20" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="33"/>
       <c r="G20" s="40"/>
       <c r="H20" s="39"/>
       <c r="I20" s="39" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J20" s="36" t="s">
         <v>12</v>
@@ -1879,55 +1837,55 @@
     <row r="21" spans="1:13" s="9" customFormat="1">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="10"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="50"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="26"/>
-      <c r="L21" s="51"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="1:13" s="9" customFormat="1">
-      <c r="A22" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="62"/>
+      <c r="A22" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
     </row>
     <row r="23" spans="1:13" s="9" customFormat="1">
       <c r="A23" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="19"/>
       <c r="F23" s="6"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="80" t="s">
-        <v>160</v>
+      <c r="H23" s="79" t="s">
+        <v>146</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="6" t="s">
@@ -1938,20 +1896,20 @@
     </row>
     <row r="24" spans="1:13" s="9" customFormat="1">
       <c r="A24" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="19"/>
       <c r="F24" s="6"/>
       <c r="G24" s="21"/>
       <c r="H24" s="19" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="6" t="s">
@@ -1962,25 +1920,25 @@
     </row>
     <row r="25" spans="1:13" s="9" customFormat="1" ht="31.5">
       <c r="A25" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="16"/>
       <c r="H25" s="5" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>12</v>
@@ -1993,47 +1951,47 @@
     </row>
     <row r="26" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A26" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
-      <c r="E26" s="80"/>
+      <c r="E26" s="79"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="I26" s="80" t="s">
-        <v>107</v>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>100</v>
       </c>
       <c r="J26" s="27"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
     </row>
     <row r="27" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A27" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="80"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="I27" s="80" t="s">
-        <v>109</v>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="79" t="s">
+        <v>102</v>
       </c>
       <c r="J27" s="27"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
     </row>
     <row r="28" spans="1:13" s="9" customFormat="1">
       <c r="A28" s="43"/>
@@ -2051,20 +2009,20 @@
     </row>
     <row r="29" spans="1:13" s="9" customFormat="1" ht="31.5">
       <c r="A29" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="19"/>
       <c r="F29" s="6"/>
       <c r="G29" s="21"/>
       <c r="H29" s="19" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="6" t="s">
@@ -2075,20 +2033,20 @@
     </row>
     <row r="30" spans="1:13" s="9" customFormat="1" ht="31.5">
       <c r="A30" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="37"/>
       <c r="F30" s="31"/>
       <c r="G30" s="38"/>
       <c r="H30" s="37" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I30" s="37"/>
       <c r="J30" s="6" t="s">
@@ -2099,25 +2057,25 @@
     </row>
     <row r="31" spans="1:13" s="9" customFormat="1" ht="31.5">
       <c r="A31" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="33"/>
       <c r="G31" s="40"/>
       <c r="H31" s="39" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J31" s="36" t="s">
         <v>12</v>
@@ -2130,47 +2088,47 @@
     </row>
     <row r="32" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A32" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
-      <c r="E32" s="80"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="I32" s="80" t="s">
-        <v>112</v>
+      <c r="G32" s="80"/>
+      <c r="H32" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>105</v>
       </c>
       <c r="J32" s="27"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
     </row>
     <row r="33" spans="1:13" s="23" customFormat="1" ht="47.25">
       <c r="A33" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="80"/>
+      <c r="E33" s="79"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="I33" s="80" t="s">
-        <v>114</v>
+      <c r="G33" s="80"/>
+      <c r="H33" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="79" t="s">
+        <v>107</v>
       </c>
       <c r="J33" s="27"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
     </row>
     <row r="34" spans="1:13" s="9" customFormat="1">
       <c r="A34" s="6"/>
@@ -2188,20 +2146,20 @@
     </row>
     <row r="35" spans="1:13" s="9" customFormat="1">
       <c r="A35" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="39"/>
       <c r="F35" s="33"/>
       <c r="G35" s="40"/>
       <c r="H35" s="39" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I35" s="39"/>
       <c r="J35" s="36" t="s">
@@ -2212,20 +2170,20 @@
     </row>
     <row r="36" spans="1:13" s="9" customFormat="1">
       <c r="A36" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="39"/>
       <c r="F36" s="33"/>
       <c r="G36" s="40"/>
       <c r="H36" s="39" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I36" s="39"/>
       <c r="J36" s="36" t="s">
@@ -2236,25 +2194,25 @@
     </row>
     <row r="37" spans="1:13" s="9" customFormat="1" ht="31.5">
       <c r="A37" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="83" t="s">
-        <v>146</v>
+        <v>113</v>
+      </c>
+      <c r="C37" s="82" t="s">
+        <v>139</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="33"/>
       <c r="G37" s="40"/>
       <c r="H37" s="39" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J37" s="36" t="s">
         <v>12</v>
@@ -2267,47 +2225,47 @@
     </row>
     <row r="38" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A38" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
-      <c r="E38" s="80"/>
+      <c r="E38" s="79"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="I38" s="80" t="s">
-        <v>117</v>
+      <c r="G38" s="80"/>
+      <c r="H38" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" s="79" t="s">
+        <v>110</v>
       </c>
       <c r="J38" s="27"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
     </row>
     <row r="39" spans="1:13" s="23" customFormat="1" ht="47.25">
       <c r="A39" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
-      <c r="E39" s="80"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="I39" s="80" t="s">
-        <v>119</v>
+      <c r="G39" s="80"/>
+      <c r="H39" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" s="79" t="s">
+        <v>112</v>
       </c>
       <c r="J39" s="27"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
     </row>
     <row r="40" spans="1:13" s="9" customFormat="1">
       <c r="A40" s="31"/>
@@ -2325,20 +2283,20 @@
     </row>
     <row r="41" spans="1:13" s="9" customFormat="1">
       <c r="A41" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="39"/>
       <c r="F41" s="33"/>
       <c r="G41" s="40"/>
       <c r="H41" s="39" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I41" s="39"/>
       <c r="J41" s="36" t="s">
@@ -2349,20 +2307,20 @@
     </row>
     <row r="42" spans="1:13" s="9" customFormat="1">
       <c r="A42" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="39"/>
       <c r="F42" s="33"/>
       <c r="G42" s="40"/>
       <c r="H42" s="39" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I42" s="39"/>
       <c r="J42" s="36" t="s">
@@ -2373,25 +2331,25 @@
     </row>
     <row r="43" spans="1:13" s="9" customFormat="1" ht="31.5">
       <c r="A43" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="33"/>
       <c r="G43" s="40"/>
       <c r="H43" s="39" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J43" s="36" t="s">
         <v>12</v>
@@ -2404,52 +2362,52 @@
     </row>
     <row r="44" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A44" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
-      <c r="E44" s="80"/>
+      <c r="E44" s="79"/>
       <c r="F44" s="27"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="I44" s="80" t="s">
-        <v>122</v>
+      <c r="G44" s="80"/>
+      <c r="H44" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" s="79" t="s">
+        <v>115</v>
       </c>
       <c r="J44" s="27"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
     </row>
     <row r="45" spans="1:13" s="23" customFormat="1" ht="31.5">
       <c r="A45" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
-      <c r="E45" s="80"/>
+      <c r="E45" s="79"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="I45" s="80" t="s">
-        <v>124</v>
+      <c r="G45" s="80"/>
+      <c r="H45" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" s="79" t="s">
+        <v>117</v>
       </c>
       <c r="J45" s="27"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
     </row>
     <row r="46" spans="1:13" s="9" customFormat="1">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="30"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="30"/>
       <c r="E46" s="39"/>
       <c r="F46" s="33"/>
@@ -2460,216 +2418,77 @@
       <c r="K46" s="5"/>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:13" s="9" customFormat="1">
-      <c r="A47" s="33" t="s">
+    <row r="47" spans="1:13">
+      <c r="A47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="22"/>
-    </row>
-    <row r="48" spans="1:13" s="9" customFormat="1">
-      <c r="A48" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="35" t="s">
+      <c r="C49" s="20"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="I48" s="39"/>
-      <c r="J48" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="22"/>
-    </row>
-    <row r="49" spans="1:13" s="9" customFormat="1">
-      <c r="A49" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="I49" s="39"/>
-      <c r="J49" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="22"/>
-    </row>
-    <row r="50" spans="1:13" s="9" customFormat="1">
-      <c r="A50" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="I50" s="39"/>
-      <c r="J50" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="22"/>
-    </row>
-    <row r="51" spans="1:13" s="9" customFormat="1" ht="31.5">
-      <c r="A51" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J51" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="9" customFormat="1">
-      <c r="A52" s="26"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="22"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2698,7 +2517,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2706,147 +2525,147 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="54"/>
+      <c r="F1" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>23</v>
+      <c r="C2" s="55" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="C4" s="34" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="24" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="24" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +2679,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2871,24 +2690,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="23" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_3_resultat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE413EA0-3122-4FF8-8DA7-DBA02F1AA560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF1622D-77C0-414E-ADBD-11AB40FB98AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -475,9 +475,6 @@
     <t>${r_test} = 'Filtration d urine + Kato katz'</t>
   </si>
   <si>
-    <t>sn_sch_sth_impact_20403_3_res_v4</t>
-  </si>
-  <si>
     <t>(2024 Mar) - 3. SCH/STH – Resultats V4</t>
   </si>
   <si>
@@ -485,6 +482,9 @@
   </si>
   <si>
     <t>sn_r_2403_v4</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_20403_3_res_v4_1</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1559,7 +1559,7 @@
         <v>90</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="75" t="s">
         <v>121</v>
@@ -2426,7 +2426,7 @@
         <v>60</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="7"/>
@@ -2678,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
